--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>описание</t>
   </si>
@@ -507,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,7 +518,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,13 +582,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Тестови случаи" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>описание</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>#37</t>
+  </si>
+  <si>
+    <t>Тестване на функционалността на TeacherClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Логване от профил на учител                                                            2. Търсене на /Profiles/TeacherClass в браузъра </t>
+  </si>
+  <si>
+    <t>Да са запазени данни в базата данни, свързващи учебни класове с учениците в тях</t>
+  </si>
+  <si>
+    <t>Успешно запазване на нова оценка, забележка, отсъствие</t>
   </si>
 </sst>
 </file>
@@ -517,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,12 +594,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -1947,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>описание</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>Успешно запазване на нова оценка, забележка, отсъствие</t>
+  </si>
+  <si>
+    <t>Грешка при връзка с базата данни след промените, свързани с регистрацията и ролите</t>
+  </si>
+  <si>
+    <t>Йордан Янков</t>
+  </si>
+  <si>
+    <t>Тестване на функционалността за регистриране на потребител с конкретна роля</t>
+  </si>
+  <si>
+    <t>Да се пусне приложението с разкоментиран методът за добавяне на роли в базата данни в Startup.cs и да се коментира if блокът в Home/Index за първото регистриране на админ</t>
+  </si>
+  <si>
+    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни и опит за регистриране на нов потребител</t>
+  </si>
+  <si>
+    <t>Нов запис в базата данни в таблицата AspNetUsers с въведените данни, включително Name и Surname (добавени) и нов запис в AspNetUserRoles, показващ връзка между регистрирания потребител и съответната му роля</t>
+  </si>
+  <si>
+    <t>Неналична миграция, свързана с промените, за обновяване на базата данни</t>
+  </si>
+  <si>
+    <t>#44</t>
   </si>
 </sst>
 </file>
@@ -519,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,7 +554,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,12 +635,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:5" ht="90">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
@@ -1970,7 +2004,7 @@
   <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2047,21 +2081,45 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44548</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>44548</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестови случаи" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Тестване на функционалността за регистриране на потребител с конкретна роля</t>
   </si>
   <si>
-    <t>Да се пусне приложението с разкоментиран методът за добавяне на роли в базата данни в Startup.cs и да се коментира if блокът в Home/Index за първото регистриране на админ</t>
-  </si>
-  <si>
     <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни и опит за регистриране на нов потребител</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>#44</t>
+  </si>
+  <si>
+    <t>Пускане на приложението с разкоментиран методът за добавяне на роли в базата данни в Startup.cs и коментиран if блокът в Home/Index за първото регистриране на админ</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -643,13 +643,13 @@
         <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2003,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2112,10 +2112,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>описание</t>
   </si>
@@ -135,6 +135,12 @@
   <si>
     <t>Пускане на приложението с разкоментиран методът за добавяне на роли в базата данни в Startup.cs и коментиран if блокът в Home/Index за първото регистриране на админ</t>
   </si>
+  <si>
+    <t>v0.10</t>
+  </si>
+  <si>
+    <t>v0.11</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -543,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2004,15 +2007,15 @@
   <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="96.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
@@ -2042,10 +2045,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
-        <v>44545</v>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2063,10 +2066,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
-        <v>44546</v>
+      <c r="B3" s="14" t="s">
+        <v>38</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2084,8 +2087,8 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
-        <v>44548</v>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -2105,8 +2108,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
-        <v>44548</v>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Тестови случаи" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>описание</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Тестване на функционалността за регистриране на потребител с конкретна роля</t>
   </si>
   <si>
-    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни и опит за регистриране на нов потребител</t>
-  </si>
-  <si>
     <t>Нов запис в базата данни в таблицата AspNetUsers с въведените данни, включително Name и Surname (добавени) и нов запис в AspNetUserRoles, показващ връзка между регистрирания потребител и съответната му роля</t>
   </si>
   <si>
@@ -140,6 +137,21 @@
   </si>
   <si>
     <t>v0.11</t>
+  </si>
+  <si>
+    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни за нов потребител и опит за регистриране чрез формата за регистрация</t>
+  </si>
+  <si>
+    <t>Тестване на функционалността за регистриране на ученик в конкретен клас</t>
+  </si>
+  <si>
+    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни за нов ученик, въвеждане на учебен клас, към който да се присъедини (със символи от латинската и българската азбука за паралелка)</t>
+  </si>
+  <si>
+    <t>Нов запис в базата данни за ученик в таблицата AspNetUsers и връзка между ученик и клас в UserSchoolClass, сочеща към избрания клас</t>
+  </si>
+  <si>
+    <t>Записи на учебни класове от 1 до 12 и от А до В в базата данни, от които да се избира</t>
   </si>
 </sst>
 </file>
@@ -556,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,21 +658,31 @@
         <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="90">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
@@ -2006,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2046,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>23</v>
@@ -2067,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>23</v>
@@ -2088,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -2109,16 +2131,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Тестови случаи" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>описание</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Да</t>
   </si>
   <si>
-    <t>Силвия Василева, Йордан Янков</t>
-  </si>
-  <si>
     <t>#37</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Записи на учебни класове от 1 до 12 и от А до В в базата данни                                                                         Записи на класни ръководители в базата данни                                                                           Записи на по трима ученика в класовете</t>
   </si>
   <si>
-    <t>Един ред за намерен клас със съвпадащ номер и буква и име на класния ръководител</t>
-  </si>
-  <si>
     <t>v0.14</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Тестване на изгледите за редактиране на потребителски профил</t>
   </si>
   <si>
-    <t>1. Логване от профил на админ                                                      2. Въвеждане на номер от 1 до 12 и буква от А до В в полетата на търсачката                                     3. Маркиране на опцията "В класове"</t>
-  </si>
-  <si>
     <t>1. Логване от профил на админ                                                      2. Въвеждане на първо име, второ име, част от име, и с малки, и с главни букви (case insencitive) в търсачката                                                                       3. Маркиране на опцията "В профили"</t>
   </si>
   <si>
@@ -194,6 +185,21 @@
   </si>
   <si>
     <t>#52</t>
+  </si>
+  <si>
+    <t>Силвия Василева</t>
+  </si>
+  <si>
+    <t>Номерът на всички ученици в класа е първи</t>
+  </si>
+  <si>
+    <t>Класният ръководител се включва в списъка с ученици за класа</t>
+  </si>
+  <si>
+    <t>1. Логване от профил на админ                                                      2. Въвеждане на номер от 1 до 12 и буква от А до В в полетата на търсачката                                     3. Маркиране на опцията "В класове"          4. Натискане на "Ученици" за първия резултат</t>
+  </si>
+  <si>
+    <t>Един ред за намерен клас със съвпадащ номер и буква и име на класния ръководител.Ииме на класния ръководител и списък с ученици от класа, подредени по азбучен ред по име и фамилия.</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.25" customHeight="1">
+    <row r="2" spans="1:5" ht="78" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -675,7 +681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25">
+    <row r="3" spans="1:5" ht="57.75" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -692,21 +698,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="47.25">
+    <row r="4" spans="1:5" ht="51.75" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="110.25">
@@ -714,16 +720,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="110.25">
@@ -731,33 +737,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="94.5">
+    </row>
+    <row r="7" spans="1:5" ht="108.75" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="110.25">
@@ -765,16 +771,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75">
@@ -2105,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2147,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>23</v>
@@ -2168,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>23</v>
@@ -2177,10 +2183,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -2189,19 +2195,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -2210,28 +2216,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="31.5" customHeight="1">
       <c r="A6" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>23</v>
@@ -2240,40 +2246,40 @@
         <v>48</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1">
+    <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>23</v>
@@ -2282,29 +2288,53 @@
         <v>56</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+    <row r="10" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
@@ -2316,13 +2346,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+    <row r="12" spans="1:7">
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
@@ -2399,7 +2423,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -2408,7 +2432,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -2478,22 +2502,22 @@
       <c r="F29" s="17"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
@@ -5724,8 +5748,8 @@
       <c r="C390" s="2"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
-      <c r="F390" s="4"/>
-      <c r="G390" s="6"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="7"/>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="2"/>
@@ -5733,8 +5757,8 @@
       <c r="C391" s="2"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
-      <c r="G391" s="4"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="7"/>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="2"/>
@@ -5743,7 +5767,7 @@
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
-      <c r="G392" s="4"/>
+      <c r="G392" s="6"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="2"/>
@@ -5790,6 +5814,24 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="2"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="2"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестови случаи" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>описание</t>
   </si>
@@ -200,6 +200,48 @@
   </si>
   <si>
     <t>Един ред за намерен клас със съвпадащ номер и буква и име на класния ръководител.Ииме на класния ръководител и списък с ученици от класа, подредени по азбучен ред по име и фамилия.</t>
+  </si>
+  <si>
+    <t>Тестване на добавяне на връзка ученик-родител</t>
+  </si>
+  <si>
+    <t>Запис на потребител с роля родител в базата данни.                                             Запис на двама ученика в базата данни.</t>
+  </si>
+  <si>
+    <t>1. Логване от профил на админ                                                      2. Намиране на родителски профил от търсачката                                                                     3. Натискане на "Редактирай"                       4. Натискане на "Промени" в графата за ученици от страницата на родителя             5. Въвеждане на имейла на един от регистрираните ученици</t>
+  </si>
+  <si>
+    <t>v0.15</t>
+  </si>
+  <si>
+    <t>InvalidOperationException: Sequence contains more than one element - Моделът съдържа всички връзки между родител и ученици</t>
+  </si>
+  <si>
+    <t>1. Намиране на ученик по имейл и добавяне на запис в UserUser с неговото Id                                                                    2. Извеждане на съобщение за неоткрит потребител при грешно въведен имейл</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>NullRefferenceException при пренасочване към Edit страницата на родител след премахване на UserUser връзка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Логване от профил на админ                    2. Посещаване на Profiles/AdminMain, Index, Edit, Create и Delete на Users, Subjects, UserUsers, SchoolClasses                 </t>
+  </si>
+  <si>
+    <t>Регистрирани потребители от всяка роля.                                                             Записи на 1 А клас в базата данни и часове за неговата програма</t>
+  </si>
+  <si>
+    <t>Тестване на консистентността на изгледите на админ</t>
+  </si>
+  <si>
+    <t>1. Еднакви стилове на полета за въвеждане на текст                                        2. Избор от падащи менюта при въвеждане на клас                                         3. Всички надписи на български език</t>
+  </si>
+  <si>
+    <t>Текстът в _LoginPartial и _Layout е на английски</t>
+  </si>
+  <si>
+    <t>#69</t>
   </si>
 </sst>
 </file>
@@ -623,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,19 +825,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+    <row r="9" spans="1:5" ht="126">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="78.75">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="14"/>
@@ -2113,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2337,25 +2399,67 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+    <row r="11" spans="1:7" ht="31.5">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="31.5">
+      <c r="A12" s="14">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="14">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>описание</t>
   </si>
@@ -226,15 +226,9 @@
     <t>NullRefferenceException при пренасочване към Edit страницата на родител след премахване на UserUser връзка</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Логване от профил на админ                    2. Посещаване на Profiles/AdminMain, Index, Edit, Create и Delete на Users, Subjects, UserUsers, SchoolClasses                 </t>
-  </si>
-  <si>
     <t>Регистрирани потребители от всяка роля.                                                             Записи на 1 А клас в базата данни и часове за неговата програма</t>
   </si>
   <si>
-    <t>Тестване на консистентността на изгледите на админ</t>
-  </si>
-  <si>
     <t>1. Еднакви стилове на полета за въвеждане на текст                                        2. Избор от падащи менюта при въвеждане на клас                                         3. Всички надписи на български език</t>
   </si>
   <si>
@@ -242,6 +236,15 @@
   </si>
   <si>
     <t>#69</t>
+  </si>
+  <si>
+    <t>Тестване на консистентността на началната страница и изгледите на админ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Посещаване на Home/Index                    2. Логване от профил на админ                    3. Посещаване на Profiles/AdminMain, Index, Edit, Create и Delete на Users, Subjects, UserUsers, SchoolClasses                 </t>
+  </si>
+  <si>
+    <t>Изображенията в carousel в Home/Index са с различен размер и отместват бутона за логване</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,16 +850,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
@@ -2175,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2452,10 +2455,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>30</v>
@@ -2463,12 +2466,24 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>описание</t>
   </si>
@@ -245,6 +245,72 @@
   </si>
   <si>
     <t>Изображенията в carousel в Home/Index са с различен размер и отместват бутона за логване</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Записи за по три различни часа за 1 А, 1 Б, 1 В, 2 А и 3 А клас </t>
+  </si>
+  <si>
+    <t>Тестване на търсачка в AdminMain при търсене на предмети</t>
+  </si>
+  <si>
+    <t>1. Извеждане на списък с трите часа, водени на 1 А клас                                         2. Извеждане на списък с девет часа, водени на 1 А, 1 Б и 1 В клас                                 3. Извеждане на списък с девет часа, водени на 1 А, 2 А и 3 А клас                        4. Извеждане на списък с всички часове в базата данни</t>
+  </si>
+  <si>
+    <t>1. Логване от профил на админ и въвеждане на 1 А клас от падащите менюта и търсене                                           2. Въвеждане на 1 клас от падащото меню и търсене                                                          3. Въвеждане на А клас от падащото меню и търсене                                                          4. Оставяне на полетата празни и търсене</t>
+  </si>
+  <si>
+    <t>Търсачката извежда празен списък при оставено непопълнено поле за номер или буква на клас</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>Тестване на регистриране на учител</t>
+  </si>
+  <si>
+    <t>Регистриран админ</t>
+  </si>
+  <si>
+    <t>1. Запис в базата данни на потребител с роля учител без SchoolClassId</t>
+  </si>
+  <si>
+    <t>v0.16</t>
+  </si>
+  <si>
+    <t>След регистриране на учителя при влизане в неговия профил излиза грешка от празното SchoolClassId при проверка за класен ръководител</t>
+  </si>
+  <si>
+    <t>Марина Мендова</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>Тестване на функционалността за родител</t>
+  </si>
+  <si>
+    <t>Регистриран админ и родител, двама регистрирани ученици</t>
+  </si>
+  <si>
+    <t>1. Логване от профил на админ и                                           2. Регистриране на нов учител без SchoolClassId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Логване от профил на админ и добавяне на двама ученици към профил на родител                                                     2. Логване от профил на учител и нанасяне на по три оценки на двамата ученици                                                         3. Логване от профил на родителя                                                 </t>
+  </si>
+  <si>
+    <t>Начална страница на родител с карти за всеки ученик, представящи среден успех и клас</t>
+  </si>
+  <si>
+    <t>Не</t>
+  </si>
+  <si>
+    <t>#84</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>Изисква се попълване и на оценка, и на отсъствие, и на забележка за валидно запазване на данните</t>
   </si>
 </sst>
 </file>
@@ -345,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,6 +460,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -862,26 +931,56 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+    <row r="11" spans="1:5" ht="141.75">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="93" customHeight="1">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="126.75" customHeight="1">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="14"/>
@@ -2176,9 +2275,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2297,28 +2396,24 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1">
       <c r="A6" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>47</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2329,7 +2424,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>47</v>
@@ -2350,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>47</v>
@@ -2361,7 +2456,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -2371,7 +2466,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>47</v>
@@ -2381,9 +2476,9 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1">
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>45</v>
@@ -2392,31 +2487,31 @@
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="31.5">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1">
       <c r="A11" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>30</v>
@@ -2434,7 +2529,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>66</v>
@@ -2444,9 +2539,9 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="31.5">
       <c r="A13" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>63</v>
@@ -2455,17 +2550,17 @@
         <v>23</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="31.5" customHeight="1">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -2476,7 +2571,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>71</v>
@@ -2486,58 +2581,110 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A15" s="14">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+    <row r="16" spans="1:7" ht="31.5">
+      <c r="A16" s="14">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+    <row r="17" spans="1:7" ht="31.5">
+      <c r="A17" s="14">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="14">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+    <row r="19" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+    <row r="20" spans="1:7">
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
@@ -2560,7 +2707,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -2569,7 +2716,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2639,22 +2786,22 @@
       <c r="F31" s="17"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
@@ -5885,8 +6032,8 @@
       <c r="C392" s="2"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
-      <c r="G392" s="6"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="7"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="2"/>
@@ -5894,8 +6041,8 @@
       <c r="C393" s="2"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
-      <c r="G393" s="4"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="7"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="2"/>
@@ -5904,7 +6051,7 @@
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
-      <c r="G394" s="4"/>
+      <c r="G394" s="6"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="2"/>
@@ -5951,6 +6098,24 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="2"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="2"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>описание</t>
   </si>
@@ -311,6 +311,42 @@
   </si>
   <si>
     <t>Изисква се попълване и на оценка, и на отсъствие, и на забележка за валидно запазване на данните</t>
+  </si>
+  <si>
+    <t>Тестване на изгледа за учебна програма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистриран ученик и учител, добавени часове в 09:00:00, 11:00:00 и 10:00:00 в сряда </t>
+  </si>
+  <si>
+    <t>1. Логване в профил на учител и посещаване на Profiles/TeacherProgram      2. Логване от профил на ученик и посещаване на Subjects/StudentsProgram</t>
+  </si>
+  <si>
+    <t>Изписват се трите часа за сряда, сортирани по време</t>
+  </si>
+  <si>
+    <t>#87</t>
+  </si>
+  <si>
+    <t>Часовете не са сортирани по време</t>
+  </si>
+  <si>
+    <t>Тестване на изглед за отсъствия и забележки от профил на ученик</t>
+  </si>
+  <si>
+    <t>Регистриран ученик с въведени три отсъствия и забележки по Математика и едно остъствие и забележка по Бъгарски език и литература</t>
+  </si>
+  <si>
+    <t>1. Логване в профил на ученик и отваряне на страниците за забележки и отсъствия от бутоните в долната част на основната страница</t>
+  </si>
+  <si>
+    <t>1. Списък с всички отсъствия по математика и български                               2. Списък с всички забележки по математика и български език</t>
+  </si>
+  <si>
+    <t>V0.16</t>
+  </si>
+  <si>
+    <t>Грешка при връзката с базата данни при повече от една забележка или повече от едно отсъствие по един и същ предмет</t>
   </si>
 </sst>
 </file>
@@ -737,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -982,19 +1018,39 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+    <row r="14" spans="1:5" ht="63">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="78.75">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="14"/>
@@ -2277,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2684,16 +2740,44 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A20" s="14">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
+    <row r="21" spans="1:7" ht="31.5">
+      <c r="A21" s="14">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75">

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>описание</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Грешка при връзката с базата данни при повече от една забележка или повече от едно отсъствие по един и същ предмет</t>
+  </si>
+  <si>
+    <t>#90</t>
   </si>
 </sst>
 </file>
@@ -784,7 +787,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2333,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2774,7 +2777,9 @@
       <c r="D21" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="F21" s="17" t="s">
         <v>86</v>
       </c>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
   <si>
     <t>описание</t>
   </si>
@@ -37,18 +37,12 @@
     <t>Очакван резултат</t>
   </si>
   <si>
-    <t>Номер на тестов случай</t>
-  </si>
-  <si>
     <t>Версия на програмата</t>
   </si>
   <si>
     <t>Получен резултат, различаващ се от очаквания</t>
   </si>
   <si>
-    <t>Номер на задача в системата за управление на задачи</t>
-  </si>
-  <si>
     <t>Име на студента, извършил теста</t>
   </si>
   <si>
@@ -350,6 +344,66 @@
   </si>
   <si>
     <t>#90</t>
+  </si>
+  <si>
+    <t>1. Отваряне на Home/Index (браузърът дава грешка за липсваща миграция)</t>
+  </si>
+  <si>
+    <t>1. Търсене на всички първи класове от търсачката в Profiles/AdminMain                                                                                                   2. Отваряне на "Ученици" реда за 1 А клас в получаната таблица</t>
+  </si>
+  <si>
+    <t>1. Логване от профила admin@abv.bg и отваряне на Profiles/AdminMain                                                                                                      2. Търсене на "Юлиян" при маркирана опцията "В профили" на търсачката                                                                                                                             3. Натискане на бутона "Редактирай" за реда, съответстващ на профила yulian@mail.bg</t>
+  </si>
+  <si>
+    <t>1. Логване от профил на админ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер на задача в системата </t>
+  </si>
+  <si>
+    <t>1. Логване от профил maria@abv.bg при записи в Subject за часове по математика и български, водени от конкретния учител                                                                                                     2. Натискане на бутона за математика                                                                                     3. Натискане на бутона за български език (падащото меню за математика се отваря)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Логване от профил maria@abv.bg и отваряне на 1 А клас от падащото меню за математика                                                                                                                                       2. Нанасяне на оценка на първия ученик в списъка                                                           3. Натискане на бутона "Запази промените" </t>
+  </si>
+  <si>
+    <t>1. Логване от профила admin@abv.bg и отваряне на Profiles/AdminMain                                                                                                      2. Избиране на "1" от падащото меню за клас                                                                        3. Оставяне на празно поле за паралелка                                                                                   4. Избиране на опцията "В класове" за търсене                                                                  5. Натискане на бутона за търсене</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Търсене на всички първи класове от Profiles/AdminMain                                                                          2. Отваряне на 1 А клас от представения списък                                                                                                  3. Натискане на бутона "Назад към списъка" от изгледа за 1 А клас                             </t>
+  </si>
+  <si>
+    <t>1. Логване от профила admin@abv.bg и отваряне на Profiles/AdminMain                                                                                                      2. Търсене на "Борислав" при маркирана опцията "В профили" на търсачката                                                                                                                         3. Натискане на бутона "Редактирай" за реда, съответстващ на профила bobiM@abv.bg                                                                                                                                                   4. Натискане на бутона "Промени" от страницата за редактиране                                                             5. Натискане на бутона "Добави ученик"                                                                                                                6. Въвеждане на "katerina@mail.bg" и натискане на бутона "Добави"</t>
+  </si>
+  <si>
+    <t>1. Намиране на профила bobiM@abv.bg от търсачката в Profiles/AdminMain                                                                                                      2. Натискане на бутона "Редактирай"                                                                                                                    3. Натискане на бутона "Промени"                                                                                                                             4. Натискане на "Премахни" за първия ред от таблицата</t>
+  </si>
+  <si>
+    <t>1. Отваряне на Home/Index при незапазен логнат потребител                                                                   2. Изчакване за отместване на изображенията в Carousel</t>
+  </si>
+  <si>
+    <t>1. Логване от профила admin@abv.bg и отваряне на Profiles/AdminMain                                                                                                      2. Избиране на "1" от падащото меню за клас                                                                                                      3. Оставяне на празно поле за паралелка                                                                                                               4. Избиране на опцията "В класове" за търсене                                                                                                   5. Натискане на бутона за търсене</t>
+  </si>
+  <si>
+    <t>1. Логване от профила admin@abv.bg                                                                                                                       2. Регистриране на нов потребител nikolai@gmail.com с роля "Учител"                                                                                                                             3. Излизане от профила на admin@abv.bg и логване от профила на nikolai@gmail.com</t>
+  </si>
+  <si>
+    <t>1. Логване от профила maria@abv.bg                                                                                                                        2. Отваряне на падащото меню за Български език и литература и избиране на 1 А клас от него                                                                                                                                          3. Въвеждане на оценка на втория ученик в класа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Добавяне на три часа, водени от maria@abv.bg в сряда съответно започващи от 10:30, 9:00 и 11:20                                                                                                                                                                2. Логване от профила на учител maria@abv.bg                                                                  3. Натискане на бутона "Програма"                                                              </t>
+  </si>
+  <si>
+    <t>1. Логване от профила maria@abv.bg                                                                                                                        2. Отваряне на падащото меню за Български език и литература и избиране на 1 А клас от него                                                                                                                                          3. Въвеждане на две забележки на viktor@abv.bg                                                                                             4. Логване от профила viktor@abv.bg                                                                                                                        5. Натискане на бутона "Забележки"</t>
+  </si>
+  <si>
+    <t>Изпълнени стъпки</t>
+  </si>
+  <si>
+    <t>Номер на тестови случай</t>
+  </si>
+  <si>
+    <t>1. Въвеждане линк с релативен път към изображения за Carousel в страницата Home/Index</t>
   </si>
 </sst>
 </file>
@@ -450,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,6 +556,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,7 +833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -786,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -822,16 +879,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.75" customHeight="1">
@@ -839,16 +896,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51.75" customHeight="1">
@@ -856,16 +913,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="110.25">
@@ -873,16 +930,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="110.25">
@@ -890,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="108.75" customHeight="1">
@@ -907,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="110.25">
@@ -924,16 +981,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="126">
@@ -941,16 +998,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="78.75">
@@ -958,16 +1015,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="141.75">
@@ -975,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="93" customHeight="1">
@@ -992,16 +1049,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="126.75" customHeight="1">
@@ -1009,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="63">
@@ -1026,16 +1083,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="78.75">
@@ -1043,16 +1100,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -2336,481 +2393,520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="96.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="64.5" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1">
+      <c r="G1" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="109.5" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1">
+      <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="109.5" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="109.5" customHeight="1">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="109.5" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="109.5" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="109.5" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="109.5" customHeight="1">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="109.5" customHeight="1">
       <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="109.5" customHeight="1">
       <c r="A10" s="14">
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="109.5" customHeight="1">
       <c r="A11" s="14">
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="31.5">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="156" customHeight="1">
       <c r="A12" s="14">
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="109.5" customHeight="1">
       <c r="A13" s="14">
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="109.5" customHeight="1">
       <c r="A14" s="14">
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="109.5" customHeight="1">
       <c r="A15" s="14">
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="109.5" customHeight="1">
       <c r="A16" s="14">
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="109.5" customHeight="1">
       <c r="A17" s="14">
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="G17" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="109.5" customHeight="1">
       <c r="A18" s="14">
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.75" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="109.5" customHeight="1">
       <c r="A19" s="14">
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1">
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="109.5" customHeight="1">
       <c r="A20" s="14">
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.5">
+      <c r="G20" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="109.5" customHeight="1">
       <c r="A21" s="14">
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
+        <v>84</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="109.5" hidden="1" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="109.5" hidden="1" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="109.5" hidden="1" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="14"/>
@@ -2819,7 +2915,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="14"/>
@@ -2828,7 +2924,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="14"/>
@@ -2837,7 +2933,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="14"/>
@@ -2846,7 +2942,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="14"/>
@@ -2855,7 +2951,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="14"/>
@@ -2864,7 +2960,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="14"/>
@@ -2873,7 +2969,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="14"/>
@@ -2882,7 +2978,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="14"/>
@@ -2891,7 +2987,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2"/>
@@ -2900,7 +2996,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2"/>
@@ -2909,7 +3005,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2"/>
@@ -2918,7 +3014,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2"/>
@@ -2927,7 +3023,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2"/>
@@ -2936,7 +3032,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2"/>
@@ -2945,7 +3041,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2"/>
@@ -2954,7 +3050,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2"/>
@@ -2963,7 +3059,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2"/>
@@ -2972,7 +3068,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2"/>
@@ -2981,7 +3077,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2"/>
@@ -2990,7 +3086,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2"/>
@@ -2999,7 +3095,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="7"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2"/>
@@ -3008,7 +3104,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2"/>
@@ -3017,7 +3113,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2"/>
@@ -3026,7 +3122,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2"/>
@@ -3035,7 +3131,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2"/>
@@ -3044,7 +3140,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="7"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2"/>
@@ -3053,7 +3149,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2"/>
@@ -3062,7 +3158,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2"/>
@@ -3071,7 +3167,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2"/>
@@ -3080,7 +3176,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2"/>
@@ -3089,7 +3185,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2"/>
@@ -3098,7 +3194,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2"/>
@@ -3107,7 +3203,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2"/>
@@ -3116,7 +3212,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2"/>
@@ -3125,7 +3221,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2"/>
@@ -3134,7 +3230,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2"/>
@@ -3143,7 +3239,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2"/>
@@ -3152,7 +3248,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2"/>
@@ -3161,7 +3257,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2"/>
@@ -3170,7 +3266,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2"/>
@@ -3179,7 +3275,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2"/>
@@ -3188,7 +3284,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2"/>
@@ -3197,7 +3293,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2"/>
@@ -3206,7 +3302,7 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2"/>
@@ -3215,7 +3311,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2"/>
@@ -3224,7 +3320,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2"/>
@@ -3233,7 +3329,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="7"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2"/>

--- a/documentation/test-testcases.xlsx
+++ b/documentation/test-testcases.xlsx
@@ -130,9 +130,6 @@
     <t>v0.11</t>
   </si>
   <si>
-    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни за нов потребител и опит за регистриране чрез формата за регистрация</t>
-  </si>
-  <si>
     <t>Тестване на функционалността за регистриране на ученик в конкретен клас</t>
   </si>
   <si>
@@ -403,7 +400,10 @@
     <t>Номер на тестови случай</t>
   </si>
   <si>
-    <t>1. Въвеждане линк с релативен път към изображения за Carousel в страницата Home/Index</t>
+    <t>1. Отваряне на формата за регистриране от Home/Index                                                                       2. Въвеждане на данни за нов ученик/учител/родител/админ и опит за регистриране чрез формата за регистрация</t>
+  </si>
+  <si>
+    <t>1. Въвеждане линк с относителен път към изображения за Carousel в страницата Home/Index</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" customHeight="1">
+    <row r="2" spans="1:5" ht="135" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.75" customHeight="1">
+    <row r="3" spans="1:5" ht="135" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -908,7 +908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51.75" customHeight="1">
+    <row r="4" spans="1:5" ht="135" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="110.25">
+    <row r="5" spans="1:5" ht="135" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -936,180 +936,180 @@
         <v>33</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="110.25">
+    <row r="6" spans="1:5" ht="135" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="108.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="135" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="110.25">
+    </row>
+    <row r="8" spans="1:5" ht="135" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="126">
+    </row>
+    <row r="9" spans="1:5" ht="135" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="78.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="141.75">
+    </row>
+    <row r="11" spans="1:5" ht="135" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="93" customHeight="1">
+    </row>
+    <row r="12" spans="1:5" ht="135" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="126.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:5" ht="135" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="D13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="63">
+    </row>
+    <row r="14" spans="1:5" ht="135" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="78.75">
+    </row>
+    <row r="15" spans="1:5" ht="135" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -2393,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2410,7 +2410,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="64.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -2422,13 +2422,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="109.5" customHeight="1">
@@ -2471,10 +2471,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="109.5" customHeight="1">
@@ -2497,7 +2497,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.5" customHeight="1">
@@ -2520,7 +2520,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="109.5" customHeight="1">
@@ -2531,12 +2531,12 @@
         <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2545,22 +2545,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="109.5" customHeight="1">
@@ -2568,22 +2568,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="109.5" customHeight="1">
@@ -2591,22 +2591,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="109.5" customHeight="1">
@@ -2614,22 +2614,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="109.5" customHeight="1">
@@ -2637,22 +2637,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="156" customHeight="1">
@@ -2660,22 +2660,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="109.5" customHeight="1">
@@ -2683,22 +2683,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="109.5" customHeight="1">
@@ -2706,22 +2706,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="109.5" customHeight="1">
@@ -2729,22 +2729,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="109.5" customHeight="1">
@@ -2752,22 +2752,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="109.5" customHeight="1">
@@ -2775,22 +2775,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="109.5" customHeight="1">
@@ -2798,17 +2798,17 @@
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -2817,22 +2817,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="109.5" customHeight="1">
@@ -2840,22 +2840,22 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="109.5" customHeight="1">
@@ -2863,22 +2863,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="109.5" hidden="1" customHeight="1">
